--- a/medicine/Mort/Immolation/Immolation.xlsx
+++ b/medicine/Mort/Immolation/Immolation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une immolation (du latin immolare, « saupoudrer de farine salée consacrée », d’où « offrir en sacrifice », de mola salsa « farine salée consacrée ») est un sacrifice religieux.  
 Par extension, « immolation » est devenu synonyme de « tuerie » ou « massacre » de victimes sans défense par le feu.
@@ -516,7 +528,9 @@
           <t>L'immolation dans la religion romaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'immolatio et l'abattage font partie de la deuxième phase du sacrifice chez les Romains. Cette phase consiste à saupoudrer le dos de l'animal sacrifié de farine torréfiée salée (mola salsa ou  simplement mola) préparée par les Vestales. On accomplit ensuite d'autres actes : verser un peu de vin sur la tête de l'animal, accomplir des prières notamment.
 </t>
@@ -547,7 +561,9 @@
           <t>L'immolation dans le cinéma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> En guerre (2018) par le personnage de Laurent Amédéo.
  Goliath (2022) par le personnage de Lucie.</t>
@@ -578,7 +594,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Auto-immolation
  Portail des religions et croyances   Portail de la Rome antique   Portail sur la mort                   </t>
